--- a/data/income_statement/3digits/total/469_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/469_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>469-Non-specialised wholesale trade</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>469-Non-specialised wholesale trade</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3460735.09823</v>
+        <v>3460735.098230001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4073543.0356</v>
+        <v>4073543.035600001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6324407.7683</v>
+        <v>6341239.746569999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7375843.50685</v>
+        <v>7392662.87459</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8192274.760959999</v>
+        <v>8228230.1519</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10168863.00169</v>
+        <v>10571038.22095</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>11069526.82443</v>
+        <v>11248653.28503</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>11783220.92745</v>
+        <v>11866892.98673</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>19477001.83762</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>20924909.41327</v>
+        <v>21206476.88727</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>28866750.92634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>30566029.68016</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>43272901.904</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1858996.10309</v>
@@ -995,37 +906,42 @@
         <v>2274868.2334</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3426195.39996</v>
+        <v>3442160.50806</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3573084.96119</v>
+        <v>3585046.49983</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3700731.35</v>
+        <v>3727023.64709</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4280522.40519</v>
+        <v>4325178.5359</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5085555.35113</v>
+        <v>5173948.379050001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5353230.105599999</v>
+        <v>5420249.266319999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8406827.18505</v>
+        <v>8406827.185050001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8508461.18141</v>
+        <v>8581549.41192</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11082334.37647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11822054.48484</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>17913423.769</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1538974.58294</v>
@@ -1034,76 +950,86 @@
         <v>1743008.27061</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2820734.26921</v>
+        <v>2821590.82189</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3712321.43654</v>
+        <v>3717174.70235</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4418110.63758</v>
+        <v>4427321.89973</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5786721.662520001</v>
+        <v>6144240.751069999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5878738.87242</v>
+        <v>5968468.615300001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6307163.26616</v>
+        <v>6323531.09846</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>10888261.44076</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>12108942.17232</v>
+        <v>12316546.19062</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>17310074.39731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>18262939.95342</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>24893165</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>62764.41220000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>55666.53159000001</v>
+        <v>55666.53159</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>77478.09913</v>
+        <v>77488.41661999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>90437.10912000001</v>
+        <v>90441.67241</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>73432.77338</v>
+        <v>73884.60507999999</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>101618.93398</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>105232.60088</v>
+        <v>106236.29068</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>122827.55569</v>
+        <v>123112.62195</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>181913.21181</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>307506.05954</v>
+        <v>308381.28473</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>474342.15256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>481035.2419</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>466313.135</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>47327.32659</v>
@@ -1112,37 +1038,42 @@
         <v>46735.28089</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>75279.07656</v>
+        <v>75313.98023999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>78015.564</v>
+        <v>78036.08875999998</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>81488.33891999999</v>
+        <v>81931.03889</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>101527.78884</v>
+        <v>101551.06637</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>109372.49594</v>
+        <v>110926.19632</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>147189.16437</v>
+        <v>155794.2737</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>193384.14734</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>431422.27785</v>
+        <v>440921.60719</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>636373.44864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>624020.10891</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2127302.272</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>30583.27308</v>
@@ -1151,37 +1082,42 @@
         <v>29528.57533</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>46568.38151</v>
+        <v>46603.28519</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>43183.74388</v>
+        <v>43204.26864</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>36035.44032</v>
+        <v>36478.14029</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>45307.57259</v>
+        <v>45330.47538</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>50032.37875000001</v>
+        <v>51423.80442</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>64165.06490999999</v>
+        <v>70059.7807</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>104254.77556</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>116587.67564</v>
+        <v>116773.51355</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>196312.70241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>199518.09647</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1672524.385</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>9929.07742</v>
@@ -1202,25 +1138,30 @@
         <v>43803.79326</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>37434.2036</v>
+        <v>37596.14637</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>41240.51133</v>
+        <v>43920.01956</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>46116.44496</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>102214.15094</v>
+        <v>102223.14791</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>143338.21067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>127711.39317</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>117961.667</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>6814.97609</v>
@@ -1229,7 +1170,7 @@
         <v>4791.625919999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7018.988510000001</v>
+        <v>7018.98851</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>9633.968510000001</v>
@@ -1238,28 +1179,33 @@
         <v>12648.33295</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>12416.42299</v>
+        <v>12416.79773</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>21905.91359</v>
+        <v>21906.24553</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>41783.58813</v>
+        <v>41814.47343999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>43012.92681999999</v>
+        <v>43012.92682000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>212620.45127</v>
+        <v>221924.94573</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>296722.53556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>296790.61927</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>336816.22</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3413407.77164</v>
@@ -1268,37 +1214,42 @@
         <v>4026807.75471</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6249128.69174</v>
+        <v>6265925.766329999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7297827.942849999</v>
+        <v>7314626.785829999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8110786.422040001</v>
+        <v>8146299.11301</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10067335.21285</v>
+        <v>10469487.15458</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10960154.32849</v>
+        <v>11137727.08871</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>11636031.76308</v>
+        <v>11711098.71303</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>19283617.69028</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>20493487.13542</v>
+        <v>20765555.28008</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>28230377.4777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>29942009.57125</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>41145599.632</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2869229.59712</v>
@@ -1307,37 +1258,42 @@
         <v>3417376.55033</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5385914.62991</v>
+        <v>5402438.35865</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6384367.97637</v>
+        <v>6400247.71927</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7221839.28805</v>
+        <v>7254530.28875</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8978873.430090001</v>
+        <v>9374692.422940001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>9734925.939299999</v>
+        <v>9900012.234229999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>10315411.83562</v>
+        <v>10373175.24267</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>17312603.99894</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>18191861.06899</v>
+        <v>18452458.28164</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>25363023.24414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>26991449.49438</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>37234794.116</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>179114.0875</v>
@@ -1346,37 +1302,42 @@
         <v>218238.71524</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>281643.5827</v>
+        <v>283185.45634</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>310426.2703</v>
+        <v>311540.25501</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>310384.64409</v>
+        <v>312696.78419</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>434325.0111</v>
+        <v>435526.6780900001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>307521.69617</v>
+        <v>308553.7505800001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>417437.96308</v>
+        <v>440503.66491</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>574916.1934100001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>659018.12714</v>
+        <v>659811.3650799999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>828489.4616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>856738.33565</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1327746.771</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2489275.83317</v>
@@ -1385,37 +1346,42 @@
         <v>2986249.35226</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4808632.91628</v>
+        <v>4823538.549879999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5741591.62228</v>
+        <v>5756349.321450001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6471143.86133</v>
+        <v>6501184.04093</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>8234361.979850001</v>
+        <v>8628562.65852</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>9042536.37346</v>
+        <v>9201412.57076</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>9493534.87518</v>
+        <v>9527721.111560002</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>15585207.62895</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>16122986.38452</v>
+        <v>16372307.39326</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>23729260.38632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>25278985.15519</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>34677007.995</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>189624.78555</v>
@@ -1430,31 +1396,36 @@
         <v>270757.41182</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>217173.08646</v>
+        <v>217458.04666</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>231639.83851</v>
+        <v>232056.4857</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>290248.96819</v>
+        <v>294851.87365</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>308178.04087</v>
+        <v>308684.1470100001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>437558.57974</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>546219.0394499999</v>
+        <v>550424.07233</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>694465.6536800001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>715676.9005099999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>894144.624</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>11214.8909</v>
@@ -1463,37 +1434,42 @@
         <v>5824.34775</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5925.44676</v>
+        <v>6001.66826</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>61592.67197</v>
+        <v>61600.73099</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>223137.69617</v>
+        <v>223191.41697</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>78546.60063</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>94618.90148</v>
+        <v>95194.03924000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>96260.95649000001</v>
+        <v>96266.31918999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>714921.59684</v>
+        <v>714921.5968399999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>863637.5178799999</v>
+        <v>869915.45097</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>110807.74254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>140049.10303</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>335894.726</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>544178.17452</v>
@@ -1502,82 +1478,92 @@
         <v>609431.20438</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>863214.06183</v>
+        <v>863487.4076800001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>913459.9664799999</v>
+        <v>914379.0665600001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>888947.1339899999</v>
+        <v>891768.82426</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1088461.78276</v>
+        <v>1094794.73164</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1225228.38919</v>
+        <v>1237714.85448</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1320619.92746</v>
+        <v>1337923.47036</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1971013.69134</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2301626.06643</v>
+        <v>2313096.99844</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2867354.23356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2950560.07687</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3910805.516</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>512961.57365</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>551469.5499</v>
+        <v>551469.5499000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>726343.99141</v>
+        <v>726509.2847300001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>792105.74863</v>
+        <v>792742.66949</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>760035.6788</v>
+        <v>766080.2107000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>861456.86574</v>
+        <v>865027.38454</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>938002.46265</v>
+        <v>951599.63321</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1066654.23787</v>
+        <v>1080331.68489</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1484954.29362</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1802730.84532</v>
+        <v>1841373.44551</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2296960.01514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2395148.95624</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2886939.445</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1258.9982</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>780.7793</v>
+        <v>780.7792999999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>2020.50656</v>
@@ -1601,16 +1587,21 @@
         <v>2675.19037</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>19164.38038</v>
+        <v>19213.24748</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3583.670459999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3566.96325</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2370.098</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>127255.64146</v>
@@ -1619,76 +1610,86 @@
         <v>146870.03491</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>205992.92397</v>
+        <v>206104.3111</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>260065.23224</v>
+        <v>260380.61829</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>266983.4759</v>
+        <v>272469.3435899999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>336048.5104199999</v>
+        <v>337980.7581</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>346538.94729</v>
+        <v>351656.55962</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>400636.90431</v>
+        <v>405721.18291</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>640382.2151700001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>803821.2569400001</v>
+        <v>811302.7757800001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1048167.38597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1080374.42113</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1362832.339</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>384446.93399</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>403818.73569</v>
+        <v>403818.7356900001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>518330.5608800001</v>
+        <v>518384.46707</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>530717.44437</v>
+        <v>531038.9791799999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>490968.23817</v>
+        <v>491526.90238</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>523908.48525</v>
+        <v>525546.75637</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>590902.95124</v>
+        <v>599382.50947</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>665316.85274</v>
+        <v>673910.0211600001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>841896.8880799999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>979745.208</v>
+        <v>1010857.42225</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1245208.95871</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1311207.57186</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1521737.008</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>31216.60087</v>
@@ -1697,37 +1698,42 @@
         <v>57961.65448</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>136870.07042</v>
+        <v>136978.12295</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>121354.21785</v>
+        <v>121636.39707</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>128911.45519</v>
+        <v>125688.61356</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>227004.91702</v>
+        <v>229767.3471</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>287225.92654</v>
+        <v>286115.22127</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>253965.68959</v>
+        <v>257591.78547</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>486059.39772</v>
+        <v>486059.3977199999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>498895.2211099999</v>
+        <v>471723.5529299999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>570394.21842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>555411.12063</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1023866.071</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>200152.79135</v>
@@ -1736,37 +1742,42 @@
         <v>186692.3612</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>306335.60427</v>
+        <v>306462.72286</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>277167.6579299999</v>
+        <v>277317.75612</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>349007.4750800001</v>
+        <v>349244.16818</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>375043.2016</v>
+        <v>378358.92692</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>602475.5533299999</v>
+        <v>610041.12127</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>519016.55438</v>
+        <v>585903.95998</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>771984.5198299999</v>
+        <v>771984.51983</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1762390.80188</v>
+        <v>1820698.38236</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1603974.73759</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1657214.4761</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1954567.586</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>41849.62116</v>
@@ -1778,13 +1789,13 @@
         <v>30136.24267</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>60666.60881999999</v>
+        <v>60666.60882</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>38248.60083999999</v>
+        <v>38248.60084</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>40296.02658000001</v>
+        <v>40296.02658</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>42992.25691</v>
@@ -1799,13 +1810,18 @@
         <v>139760.39702</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>210383.02874</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>231562.18448</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>139336.19</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1254.30584</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>2968.6601</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>5396.9</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>14373.35368</v>
@@ -1856,73 +1877,83 @@
         <v>15521.92159</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>30863.33908</v>
+        <v>30892.46383</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>20732.10313</v>
+        <v>20789.1921</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>27394.63631</v>
+        <v>27394.64932</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>32473.26776</v>
+        <v>32570.1513</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>38338.79513</v>
+        <v>41541.33199000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>36772.73131</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>82341.25836000001</v>
+        <v>84350.34969</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>65945.3798</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>67860.58825</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>41566.759</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>5898.21364</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>7324.430030000001</v>
+        <v>7324.43003</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>7067.15703</v>
+        <v>7067.157029999999</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>8334.071679999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>7789.55242</v>
+        <v>7790.234820000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5256.252909999999</v>
+        <v>5256.78283</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>11293.42391</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>8696.54048</v>
+        <v>9190.963030000001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>10618.90531</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>8458.895170000002</v>
+        <v>8596.920970000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>17980.59878</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>19144.86742</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>20290.705</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1150.81596</v>
@@ -1940,31 +1971,36 @@
         <v>2067.37558</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1908.6143</v>
+        <v>2058.6143</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2939.95679</v>
+        <v>2970.26594</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3290.35873</v>
+        <v>3487.30519</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>2441.69501</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1934.60053</v>
+        <v>1953.22246</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3436.78171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3540.48714</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4030.338</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2998.44196</v>
+        <v>2998.441960000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>2097.82083</v>
@@ -1973,73 +2009,83 @@
         <v>21075.47418</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>41307.24208</v>
+        <v>41307.24207999999</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>2916.71076</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5778.623459999999</v>
+        <v>5778.62346</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>17701.95606</v>
+        <v>17702.0157</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>977.6379400000001</v>
+        <v>1970.13184</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>16693.33335</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3357.56871</v>
+        <v>3357.58236</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>9261.49712</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>9273.87031</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2810.004</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>111021.44586</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>88816.49608000001</v>
+        <v>88816.49608</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>156612.20064</v>
+        <v>156739.31923</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>102289.71837</v>
+        <v>102410.51145</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>240933.87594</v>
+        <v>241132.03626</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>259324.03503</v>
+        <v>262487.19859</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>456057.0129500001</v>
+        <v>463296.85051</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>381502.3514399999</v>
+        <v>443144.30701</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>522814.8201700001</v>
+        <v>522814.82017</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1442017.42555</v>
+        <v>1496173.63577</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>676661.2980800001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>686274.37835</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1565444.873</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>227.27924</v>
@@ -2069,16 +2115,21 @@
         <v>3067.57768</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>5019.128789999999</v>
+        <v>5019.12879</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>4962.95413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>4965.793470000001</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>4348.62</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>112.76839</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>220.87618</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1818.796</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>21266.54562</v>
@@ -2129,34 +2185,39 @@
         <v>27080.38053</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>30782.60677</v>
+        <v>30782.78713</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>35701.65853</v>
+        <v>35682.41994000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>33074.58526</v>
+        <v>33076.60409</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>35222.73664</v>
+        <v>35421.21469</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>37611.66823</v>
+        <v>37970.71849</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>49350.67763</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>74330.56259999999</v>
+        <v>76316.18014999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>612153.6629499999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>631402.7703999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>169524.401</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>138413.24204</v>
@@ -2165,40 +2226,45 @@
         <v>108439.45896</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>174920.47595</v>
+        <v>174981.77313</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>138508.95528</v>
+        <v>138725.28392</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>260094.36675</v>
+        <v>260107.31517</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>301794.93809</v>
+        <v>306578.278</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>478928.40436</v>
+        <v>482883.64376</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>407155.5034700001</v>
+        <v>471378.60524</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>552492.52297</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1575627.83862</v>
+        <v>1623275.73176</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>728783.4583299999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>748869.4947200001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1591323.33</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5587.73295</v>
+        <v>5587.732950000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>5795.14309</v>
@@ -2210,70 +2276,80 @@
         <v>15594.12411</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>16578.98946</v>
+        <v>16579.73409</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>17490.76468</v>
+        <v>17492.79396</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>10814.80983</v>
+        <v>10866.63059</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>10358.54352</v>
+        <v>10814.64669</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>14688.3688</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>32354.71934</v>
+        <v>32367.91981</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>41115.36097</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>41145.00235</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>54782.578</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>9184.551969999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5721.24846</v>
+        <v>5721.248460000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7783.89753</v>
+        <v>7783.897529999999</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>8596.96127</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>6007.12604</v>
+        <v>6011.00595</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7692.526769999999</v>
+        <v>7692.52677</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6757.84964</v>
+        <v>6782.83164</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>6875.4157</v>
+        <v>7711.37417</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>7123.895260000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>19031.30679</v>
+        <v>19211.22105</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>19625.90321</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>19780.56571</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>14001.341</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4901.714019999999</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>144.62241</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4549.033</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>106091.11967</v>
@@ -2321,37 +2402,42 @@
         <v>86869.77047</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>143377.10241</v>
+        <v>143438.39959</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>101644.66461</v>
+        <v>101860.99325</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>196107.33571</v>
+        <v>196115.65951</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>264653.91401</v>
+        <v>269434.5423</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>447458.34371</v>
+        <v>451323.76003</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>376507.1486599999</v>
+        <v>439436.03233</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>504544.68441</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1482069.03199</v>
+        <v>1528905.84484</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>636757.65085</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>654640.5702599999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1477878.823</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>177.78785</v>
@@ -2375,7 +2461,7 @@
         <v>4585.02826</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>3212.50033</v>
+        <v>3212.500329999999</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>3143.49114</v>
@@ -2384,13 +2470,18 @@
         <v>5607.243759999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>4727.03788</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>4727.0383</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>6853.583</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>186.95211</v>
@@ -2399,7 +2490,7 @@
         <v>197.11566</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>589.60128</v>
+        <v>589.6012799999999</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>79.75345999999999</v>
@@ -2423,13 +2514,18 @@
         <v>12259.4748</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>4364.15291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>4382.89658</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>1668.664</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>12283.38347</v>
@@ -2444,70 +2540,80 @@
         <v>11085.93239</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>40523.20319000001</v>
+        <v>40523.20327000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>9869.347730000001</v>
+        <v>9870.030070000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>9053.456840000001</v>
+        <v>9066.47716</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9348.7035</v>
+        <v>9350.859960000002</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>19698.08294</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>24030.2826</v>
+        <v>24648.24816</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>22048.7301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>24048.79911</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>31589.308</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>56471.94256</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>40685.17747000001</v>
+        <v>40685.17747</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>63020.38356000001</v>
+        <v>63073.79448999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>66100.43090000001</v>
+        <v>66161.26781</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>54029.244</v>
+        <v>55640.16477</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>75061.05686</v>
+        <v>75381.47581999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>101815.27958</v>
+        <v>102438.82521</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>96472.9485</v>
+        <v>98462.48850000001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>141942.94223</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>231300.82633</v>
+        <v>233427.52751</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>205493.79944</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>208149.63071</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>198968.133</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>48524.64766</v>
@@ -2516,37 +2622,42 @@
         <v>33536.94266</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>58428.64926999999</v>
+        <v>58482.0602</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>62515.71793999999</v>
+        <v>62576.55484999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>50578.20262999999</v>
+        <v>52184.1378</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>68896.54994</v>
+        <v>69215.12076000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>94145.98918999999</v>
+        <v>94763.12534</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>91753.03434999999</v>
+        <v>93742.57435</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>132987.31555</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>204576.64436</v>
+        <v>206703.34554</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>186827.46671</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>189594.85179</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>192215.821</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>7947.294900000001</v>
@@ -2555,19 +2666,19 @@
         <v>7148.234810000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4591.73429</v>
+        <v>4591.734289999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3584.71296</v>
+        <v>3584.712959999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3451.04137</v>
+        <v>3456.026969999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>6164.50692</v>
+        <v>6166.35506</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7669.290390000001</v>
+        <v>7675.699869999999</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>4719.914150000001</v>
@@ -2579,52 +2690,62 @@
         <v>26724.18197</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>18666.33273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>18554.77892</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6752.312</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>36484.20762000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>95529.37925000001</v>
+        <v>95529.37925</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>205264.81518</v>
+        <v>205385.27819</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>193912.4896</v>
+        <v>194067.60146</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>163795.31952</v>
+        <v>159185.3018</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>225192.12367</v>
+        <v>226166.5202</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>308957.79593</v>
+        <v>310833.87357</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>269353.792</v>
+        <v>273654.6517100001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>563608.45235</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>454357.35804</v>
+        <v>435718.67602</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1240091.69824</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1255606.4713</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1188142.194</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>36461.49038</v>
@@ -2633,43 +2754,48 @@
         <v>28363.8126</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>38010.95752</v>
+        <v>38011.16862</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>51535.28845</v>
+        <v>51535.37797</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>35669.30357</v>
+        <v>35686.2464</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>51181.05218</v>
+        <v>51239.27076</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>52683.80273</v>
+        <v>53367.72293</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>69781.91082999999</v>
+        <v>81847.25639</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>74772.13821999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>106607.9095</v>
+        <v>108072.62265</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>127325.77497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>128783.67417</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>260611.198</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1665.30268</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>997.1231399999999</v>
+        <v>997.12314</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>649.9213599999999</v>
@@ -2687,22 +2813,27 @@
         <v>1009.84816</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>411.43871</v>
+        <v>414.07262</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1945.39408</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>348.3722300000001</v>
+        <v>597.57713</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>910.8823100000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>916.3790700000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>521.482</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>34796.1877</v>
@@ -2711,37 +2842,42 @@
         <v>27366.68946</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>37361.03616</v>
+        <v>37361.24725999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>51135.8481</v>
+        <v>51135.93762</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>35058.03191000001</v>
+        <v>35074.97474000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>49845.30284</v>
+        <v>49903.52142</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>51673.95457</v>
+        <v>52357.87476999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>69370.47212000001</v>
+        <v>81433.18376999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>72826.74414</v>
+        <v>72826.74413999998</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>106259.53727</v>
+        <v>107475.04552</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>126414.89266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>127867.2951</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>260089.716</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>48899.38861</v>
@@ -2750,37 +2886,42 @@
         <v>60057.30622999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>205894.27723</v>
+        <v>205934.83296</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>45854.76689</v>
+        <v>45878.31086</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>121603.38471</v>
+        <v>122242.44689</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>70962.02914</v>
+        <v>71746.35007000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>55139.06002</v>
+        <v>56011.13014</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>130645.33447</v>
+        <v>135887.67148</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>66648.70242</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>201618.29187</v>
+        <v>206912.64269</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>97742.53001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>98172.62142</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>119348.479</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1967.67054</v>
@@ -2801,7 +2942,7 @@
         <v>325.83594</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>555.49069</v>
+        <v>582.50314</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>764.42019</v>
@@ -2810,16 +2951,21 @@
         <v>984.4518200000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1359.55859</v>
+        <v>1359.751</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>842.23346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>864.23514</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2447.304</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>4583.20847</v>
@@ -2837,28 +2983,33 @@
         <v>1332.27873</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9748.95075</v>
+        <v>9749.307749999998</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3863.13339</v>
+        <v>3868.54999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>13504.74822</v>
+        <v>13509.70363</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2323.66788</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>16071.78811</v>
+        <v>16128.5455</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10865.73438</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6204.524850000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2582.197</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>42348.5096</v>
@@ -2867,76 +3018,86 @@
         <v>52789.41512999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>200535.45231</v>
+        <v>200576.00804</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>42028.78623</v>
+        <v>42052.3302</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>118967.27537</v>
+        <v>119606.33755</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>60887.24245000001</v>
+        <v>61671.20638</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>50720.43594</v>
+        <v>51560.07701000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>116376.16606</v>
+        <v>121613.54766</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>63340.58272</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>184186.94517</v>
+        <v>189424.34619</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>86034.56216999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>91103.86143</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>114318.978</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>24046.30938999999</v>
+        <v>24046.30939</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>63835.88562000001</v>
+        <v>63835.88562</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>37381.49547</v>
+        <v>37461.61385000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>199593.01116</v>
+        <v>199724.66857</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>77861.23838</v>
+        <v>72629.10131</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>205411.14671</v>
+        <v>205659.44089</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>306502.53864</v>
+        <v>308190.46636</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>208490.36836</v>
+        <v>219614.23662</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>571731.88815</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>359346.97567</v>
+        <v>336878.65598</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1269674.9432</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1286217.52405</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1329404.913</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>21960.12022</v>
@@ -2945,73 +3106,81 @@
         <v>25936.81104</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>48649.75269</v>
+        <v>48670.45326</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>45565.02770000001</v>
+        <v>45617.39211</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>50653.8816</v>
+        <v>50708.48441</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>58909.15883</v>
+        <v>59117.08387</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>66174.79927</v>
+        <v>66487.45169</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>74941.56157000001</v>
+        <v>77802.70666</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>111798.29034</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>136260.43727</v>
+        <v>137847.98357</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>159270.23568</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>167122.03994</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>265275.46</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>2086.189170000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>37899.07458000001</v>
+        <v>37899.07458</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-11268.25721999999</v>
+        <v>-11208.83941000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>154027.98346</v>
+        <v>154107.27646</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>27207.35678</v>
+        <v>21920.6169</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>146501.98788</v>
+        <v>146542.35702</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>240327.73937</v>
+        <v>241703.01467</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>133548.80679</v>
+        <v>141811.52996</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>459933.5978099999</v>
+        <v>459933.59781</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>223086.5384</v>
+        <v>199030.67241</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1110404.70752</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1119095.48411</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1064129.453</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>10662</v>
@@ -3038,34 +3210,37 @@
         <v>10896</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>10930</v>
+        <v>10935</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>10137</v>
+        <v>10151</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>8294</v>
+        <v>8318</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>8016</v>
+        <v>8049</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>8162</v>
+        <v>8276</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>8611</v>
+        <v>8686</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>9694</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9108</v>
+        <v>11583</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>9796</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>13082</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>14702</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>